--- a/lib/excel_templates/apqp_plan_report_modified.xlsx
+++ b/lib/excel_templates/apqp_plan_report_modified.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhn15\Ruby On Rails\controller_rubocop_autocorrect_20240129\lib\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ruby On Rails\production_revise_20241231\lib\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="計画書" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">計画書!$A$1:$T$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">計画書!$A$1:$T$64</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123" count="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="144" count="144">
   <si>
     <t>APQP計画書</t>
     <rPh sb="4" eb="6">
@@ -535,13 +535,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>プロセスフロー図</t>
-    <rPh sb="7" eb="8">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>寸法測定結果(型検)</t>
     <rPh sb="0" eb="2">
       <t>スンポウ</t>
@@ -627,16 +620,6 @@
   </si>
   <si>
     <t>マスターサンプル</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>検査補助具</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ホジョグ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1023,14 +1006,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>#{?processflow_check}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>報告書名：#{?processflow_filename}</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>#{?partnumber}</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1079,6 +1054,121 @@
   </si>
   <si>
     <t>報告書名：#{?dr_setsubi_filename_1}</t>
+  </si>
+  <si>
+    <t>プロセスフロー図(営業P)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プロセスフロー図(工程設計P)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プロセスフロー図(製造プレスP)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プロセスフロー図(製造成形P)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プロセスフロー図(検査引渡しP)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>#{?processflow_sales_check}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>#{?processflow_design_check}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>#{?processflow_stamping_check}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>#{?processflow_mold_check}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>#{?processflow_inspection_check}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>報告書名：#{?processflow_filename_sales}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>報告書名：#{?processflow_filename_design}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>報告書名：#{?processflow_filename_stamping}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>報告書名：#{?processflow_filename_mold}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>報告書名：#{?processflow_filename_inspection}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>#{?grr_check}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>報告書名：#{?grr_filename}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>#{?documented_information_of_qualified_laboratories_check}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>報告書名#{?documented_information_of_qualified_laboratories_filename}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検査補助具(プレス)</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ホジョグ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検査補助具(成形)</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ホジョグ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>#{?inspection_fixtures_stamping_check}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>報告書名：#{?inspection_fixtures_stamping_filename}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>報告書名：#{?inspection_fixtures_mold_filename}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>#{?inspection_fixtures_mold_check}</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1410,6 +1500,18 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1419,13 +1521,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1437,14 +1554,113 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1454,6 +1670,75 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1464,15 +1749,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1500,18 +1776,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1527,24 +1791,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1554,12 +1800,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1578,163 +1818,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2202,10 +2292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:U59"/>
+  <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:L27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A38" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -2216,34 +2306,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" customFormat="false" ht="16.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="42"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="107"/>
     </row>
     <row r="2" spans="1:20" customFormat="false">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="43"/>
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
@@ -2264,10 +2354,10 @@
       <c r="T2" s="45"/>
     </row>
     <row r="3" spans="1:20" customFormat="false">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="69"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="43"/>
       <c r="D3" s="44"/>
       <c r="E3" s="44"/>
@@ -2288,10 +2378,10 @@
       <c r="T3" s="45"/>
     </row>
     <row r="4" spans="1:20" customFormat="false">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="69"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="43"/>
       <c r="D4" s="44"/>
       <c r="E4" s="44"/>
@@ -2312,10 +2402,10 @@
       <c r="T4" s="45"/>
     </row>
     <row r="5" spans="1:20" customFormat="false">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="69"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="43"/>
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
@@ -2336,51 +2426,51 @@
       <c r="T5" s="45"/>
     </row>
     <row r="6" spans="1:20" customFormat="false">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="108" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="109"/>
-      <c r="T6" s="110"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="48"/>
     </row>
     <row r="7" spans="1:20" customFormat="false">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="64" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="66"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="75"/>
       <c r="N7" s="11"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
@@ -2390,388 +2480,388 @@
       <c r="T7" s="8"/>
     </row>
     <row r="8" spans="1:20" customFormat="false" ht="29.25" customHeight="1">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="111" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="48"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+      <c r="T8" s="110"/>
     </row>
     <row r="9" spans="1:20" customFormat="false">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="111" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="112"/>
-      <c r="S9" s="112"/>
-      <c r="T9" s="113"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="54"/>
     </row>
     <row r="10" spans="1:20" customFormat="false">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="111" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="113"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="54"/>
     </row>
     <row r="11" spans="1:20" customFormat="false" ht="29.25" customHeight="1">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="68" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="52" t="s">
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="54"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="115"/>
+      <c r="P11" s="115"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="115"/>
+      <c r="S11" s="115"/>
+      <c r="T11" s="116"/>
     </row>
     <row r="12" spans="1:20" customFormat="false">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
+      <c r="A12" s="125"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="127"/>
       <c r="E12" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="56"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="51"/>
     </row>
     <row r="13" spans="1:20" customFormat="false">
-      <c r="A13" s="75"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
+      <c r="A13" s="125"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="127"/>
       <c r="E13" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="56"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="51"/>
     </row>
     <row r="14" spans="1:20" customFormat="false">
-      <c r="A14" s="75"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="77"/>
+      <c r="A14" s="125"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="127"/>
       <c r="E14" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="27"/>
+        <v>72</v>
+      </c>
+      <c r="F14" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="31"/>
     </row>
     <row r="15" spans="1:20" customFormat="false">
-      <c r="A15" s="75"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77"/>
+      <c r="A15" s="125"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="127"/>
       <c r="E15" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="120" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="58"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="63"/>
     </row>
     <row r="16" spans="1:20" customFormat="false">
-      <c r="A16" s="75"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="61" t="s">
+      <c r="A16" s="125"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="128" t="s">
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="129"/>
-      <c r="O16" s="129"/>
-      <c r="P16" s="129"/>
-      <c r="Q16" s="129"/>
-      <c r="R16" s="129"/>
-      <c r="S16" s="129"/>
-      <c r="T16" s="130"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="78"/>
     </row>
     <row r="17" spans="1:20" customFormat="false">
-      <c r="A17" s="75"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="77"/>
+      <c r="A17" s="125"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="127"/>
       <c r="E17" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="56"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="51"/>
     </row>
     <row r="18" spans="1:20" customFormat="false">
-      <c r="A18" s="78"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="80"/>
+      <c r="A18" s="128"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="130"/>
       <c r="E18" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="67" t="s">
+      <c r="F18" s="117" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="56"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="51"/>
     </row>
     <row r="19" spans="1:20" customFormat="false">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="64" t="s">
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="64" t="s">
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="66"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="75"/>
     </row>
     <row r="20" spans="1:20" customFormat="false">
       <c r="A20" s="12"/>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="104"/>
       <c r="E20" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="88"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="121" t="s">
-        <v>68</v>
-      </c>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="89"/>
+        <v>112</v>
+      </c>
+      <c r="F20" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="66"/>
     </row>
     <row r="21" spans="1:20" customFormat="false">
       <c r="A21" s="12"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="123" t="s">
+      <c r="E21" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="115"/>
-      <c r="O21" s="115"/>
-      <c r="P21" s="115"/>
-      <c r="Q21" s="115"/>
-      <c r="R21" s="115"/>
-      <c r="S21" s="115"/>
-      <c r="T21" s="116"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="57"/>
     </row>
     <row r="22" spans="1:20" customFormat="false">
       <c r="A22" s="12"/>
@@ -2781,51 +2871,51 @@
       <c r="E22" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="126" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="117"/>
-      <c r="N22" s="118"/>
-      <c r="O22" s="118"/>
-      <c r="P22" s="118"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="118"/>
-      <c r="S22" s="118"/>
-      <c r="T22" s="119"/>
+      <c r="F22" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="60"/>
     </row>
     <row r="23" spans="1:20" customFormat="false">
       <c r="A23" s="12"/>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="104"/>
       <c r="E23" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="132"/>
-      <c r="O23" s="132"/>
-      <c r="P23" s="132"/>
-      <c r="Q23" s="132"/>
-      <c r="R23" s="132"/>
-      <c r="S23" s="132"/>
-      <c r="T23" s="133"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="39"/>
     </row>
     <row r="24" spans="1:20" customFormat="false">
       <c r="A24" s="12"/>
@@ -2833,27 +2923,27 @@
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="27"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="31"/>
     </row>
     <row r="25" spans="1:20" customFormat="false">
       <c r="A25" s="12"/>
@@ -2861,27 +2951,27 @@
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="27"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="31"/>
     </row>
     <row r="26" spans="1:20" customFormat="false">
       <c r="A26" s="12"/>
@@ -2889,27 +2979,27 @@
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26" s="90" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="27"/>
+        <v>116</v>
+      </c>
+      <c r="F26" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="31"/>
     </row>
     <row r="27" spans="1:20" customFormat="false">
       <c r="A27" s="12"/>
@@ -2917,27 +3007,27 @@
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="33"/>
+        <v>98</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="42"/>
     </row>
     <row r="28" spans="1:20" customFormat="false" ht="16.5" customHeight="1">
       <c r="A28" s="12"/>
@@ -2945,10 +3035,10 @@
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
@@ -2956,185 +3046,177 @@
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
       <c r="L28" s="23"/>
-      <c r="M28" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="33"/>
+      <c r="M28" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="42"/>
     </row>
     <row r="29" spans="1:20" customFormat="false">
       <c r="A29" s="12"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" s="26" t="s">
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="40" t="str">
+        <v>報告書名：#{?dr_setsubi_filename_2}</v>
+      </c>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="42"/>
+    </row>
+    <row r="30" spans="1:20" customFormat="false">
+      <c r="A30" s="12"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="40" t="str">
+        <v>報告書名：#{?dr_setsubi_filename_3}</v>
+      </c>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="42"/>
+    </row>
+    <row r="31" spans="1:20" customFormat="false">
+      <c r="A31" s="12"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="27"/>
-    </row>
-    <row r="30" spans="1:21" customFormat="false">
-      <c r="A30" s="12"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20" t="s">
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
+      <c r="T31" s="31"/>
+    </row>
+    <row r="32" spans="1:21" customFormat="false">
+      <c r="A32" s="12"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="106" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="107"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="13"/>
-    </row>
-    <row r="31" spans="1:20" customFormat="false" ht="33" customHeight="1">
-      <c r="A31" s="12"/>
-      <c r="B31" s="92" t="s">
+      <c r="F32" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="131"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="132"/>
+      <c r="P32" s="132"/>
+      <c r="Q32" s="132"/>
+      <c r="R32" s="132"/>
+      <c r="S32" s="132"/>
+      <c r="T32" s="133"/>
+      <c r="U32" s="13"/>
+    </row>
+    <row r="33" spans="1:20" customFormat="false" ht="33" customHeight="1">
+      <c r="A33" s="12"/>
+      <c r="B33" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="26" t="s">
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="33"/>
-    </row>
-    <row r="32" spans="1:20" customFormat="false" ht="33" customHeight="1">
-      <c r="A32" s="12"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="36"/>
-    </row>
-    <row r="33" spans="1:20" customFormat="false">
-      <c r="A33" s="12"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="38"/>
-      <c r="R33" s="38"/>
-      <c r="S33" s="38"/>
-      <c r="T33" s="39"/>
-    </row>
-    <row r="34" spans="1:20" customFormat="false">
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="42"/>
+    </row>
+    <row r="34" spans="1:20" customFormat="false" ht="33" customHeight="1">
       <c r="A34" s="12"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F34" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="38"/>
-      <c r="R34" s="38"/>
-      <c r="S34" s="38"/>
-      <c r="T34" s="39"/>
+      <c r="E34" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="34"/>
     </row>
     <row r="35" spans="1:20" customFormat="false">
       <c r="A35" s="12"/>
@@ -3142,27 +3224,27 @@
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F35" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="39"/>
+        <v>112</v>
+      </c>
+      <c r="F35" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="80"/>
+      <c r="Q35" s="80"/>
+      <c r="R35" s="80"/>
+      <c r="S35" s="80"/>
+      <c r="T35" s="81"/>
     </row>
     <row r="36" spans="1:20" customFormat="false">
       <c r="A36" s="12"/>
@@ -3170,83 +3252,83 @@
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
       <c r="E36" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="F36" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="39"/>
+        <v>112</v>
+      </c>
+      <c r="F36" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="N36" s="80"/>
+      <c r="O36" s="80"/>
+      <c r="P36" s="80"/>
+      <c r="Q36" s="80"/>
+      <c r="R36" s="80"/>
+      <c r="S36" s="80"/>
+      <c r="T36" s="81"/>
     </row>
     <row r="37" spans="1:20" customFormat="false">
       <c r="A37" s="12"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
-      <c r="E37" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="33"/>
+      <c r="E37" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="80"/>
+      <c r="Q37" s="80"/>
+      <c r="R37" s="80"/>
+      <c r="S37" s="80"/>
+      <c r="T37" s="81"/>
     </row>
     <row r="38" spans="1:20" customFormat="false">
       <c r="A38" s="12"/>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
-      <c r="E38" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="F38" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="27"/>
+      <c r="E38" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" s="80" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="N38" s="80"/>
+      <c r="O38" s="80"/>
+      <c r="P38" s="80"/>
+      <c r="Q38" s="80"/>
+      <c r="R38" s="80"/>
+      <c r="S38" s="80"/>
+      <c r="T38" s="81"/>
     </row>
     <row r="39" spans="1:20" customFormat="false">
       <c r="A39" s="12"/>
@@ -3254,27 +3336,27 @@
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="26"/>
-      <c r="T39" s="27"/>
+        <v>124</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="42"/>
     </row>
     <row r="40" spans="1:20" customFormat="false">
       <c r="A40" s="12"/>
@@ -3282,25 +3364,27 @@
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="26"/>
-      <c r="T40" s="27"/>
+        <v>125</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="42"/>
     </row>
     <row r="41" spans="1:20" customFormat="false">
       <c r="A41" s="12"/>
@@ -3308,27 +3392,27 @@
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
-      <c r="T41" s="27"/>
+        <v>126</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="42"/>
     </row>
     <row r="42" spans="1:20" customFormat="false">
       <c r="A42" s="12"/>
@@ -3336,27 +3420,27 @@
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="26"/>
-      <c r="S42" s="26"/>
-      <c r="T42" s="27"/>
+        <v>127</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="42"/>
     </row>
     <row r="43" spans="1:20" customFormat="false">
       <c r="A43" s="12"/>
@@ -3364,53 +3448,55 @@
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F43" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26"/>
-      <c r="S43" s="26"/>
-      <c r="T43" s="27"/>
-    </row>
-    <row r="44" spans="1:20" customFormat="false" ht="33" customHeight="1">
+        <v>128</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="42"/>
+    </row>
+    <row r="44" spans="1:20" customFormat="false">
       <c r="A44" s="12"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="32"/>
-      <c r="T44" s="33"/>
+        <v>99</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="31"/>
     </row>
     <row r="45" spans="1:20" customFormat="false">
       <c r="A45" s="12"/>
@@ -3418,25 +3504,27 @@
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="26"/>
-      <c r="S45" s="26"/>
-      <c r="T45" s="27"/>
+        <v>97</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="31"/>
     </row>
     <row r="46" spans="1:20" customFormat="false">
       <c r="A46" s="12"/>
@@ -3444,27 +3532,27 @@
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="26"/>
-      <c r="R46" s="26"/>
-      <c r="S46" s="26"/>
-      <c r="T46" s="27"/>
+        <v>134</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="31"/>
     </row>
     <row r="47" spans="1:20" customFormat="false">
       <c r="A47" s="12"/>
@@ -3472,27 +3560,27 @@
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F47" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="26"/>
-      <c r="S47" s="26"/>
-      <c r="T47" s="27"/>
+        <v>107</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="31"/>
     </row>
     <row r="48" spans="1:20" customFormat="false">
       <c r="A48" s="12"/>
@@ -3500,27 +3588,27 @@
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F48" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="26"/>
-      <c r="S48" s="26"/>
-      <c r="T48" s="27"/>
+        <v>109</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="31"/>
     </row>
     <row r="49" spans="1:20" customFormat="false">
       <c r="A49" s="12"/>
@@ -3530,440 +3618,542 @@
       <c r="E49" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F49" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="26"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="26"/>
-      <c r="S49" s="26"/>
-      <c r="T49" s="27"/>
-    </row>
-    <row r="50" spans="1:20" customFormat="false">
+      <c r="F49" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="30"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="31"/>
+    </row>
+    <row r="50" spans="1:20" customFormat="false" ht="33" customHeight="1">
       <c r="A50" s="12"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F50" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="26"/>
-      <c r="Q50" s="26"/>
-      <c r="R50" s="26"/>
-      <c r="S50" s="26"/>
-      <c r="T50" s="27"/>
-    </row>
-    <row r="51" spans="1:20" customFormat="false" ht="33" customHeight="1">
+        <v>100</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="N50" s="41"/>
+      <c r="O50" s="41"/>
+      <c r="P50" s="41"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="41"/>
+      <c r="T50" s="42"/>
+    </row>
+    <row r="51" spans="1:20" customFormat="false">
       <c r="A51" s="12"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F51" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="26"/>
-      <c r="S51" s="26"/>
-      <c r="T51" s="27"/>
-    </row>
-    <row r="52" spans="1:20" customFormat="false" ht="33" customHeight="1">
+        <v>136</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="30"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="31"/>
+    </row>
+    <row r="52" spans="1:20" customFormat="false">
       <c r="A52" s="12"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
       <c r="E52" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F52" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
-      <c r="S52" s="35"/>
-      <c r="T52" s="36"/>
+        <v>82</v>
+      </c>
+      <c r="F52" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="31"/>
     </row>
     <row r="53" spans="1:20" customFormat="false">
       <c r="A53" s="12"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
-      <c r="E53" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" s="100" t="s">
-        <v>43</v>
-      </c>
-      <c r="G53" s="100"/>
-      <c r="H53" s="100"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="100"/>
-      <c r="K53" s="100"/>
-      <c r="L53" s="101"/>
-      <c r="M53" s="99"/>
-      <c r="N53" s="100"/>
-      <c r="O53" s="100"/>
-      <c r="P53" s="100"/>
-      <c r="Q53" s="100"/>
-      <c r="R53" s="100"/>
-      <c r="S53" s="100"/>
-      <c r="T53" s="101"/>
+      <c r="E53" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="31"/>
     </row>
     <row r="54" spans="1:20" customFormat="false">
       <c r="A54" s="12"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="20" t="s">
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F54" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="31"/>
+    </row>
+    <row r="55" spans="1:20" customFormat="false">
+      <c r="A55" s="12"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F55" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="30"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="31"/>
+    </row>
+    <row r="56" spans="1:20" customFormat="false">
+      <c r="A56" s="12"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F56" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="31"/>
+    </row>
+    <row r="57" spans="1:20" customFormat="false">
+      <c r="A57" s="12"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F54" s="106" t="s">
-        <v>60</v>
-      </c>
-      <c r="G54" s="106"/>
-      <c r="H54" s="106"/>
-      <c r="I54" s="106"/>
-      <c r="J54" s="106"/>
-      <c r="K54" s="106"/>
-      <c r="L54" s="107"/>
-      <c r="M54" s="99"/>
-      <c r="N54" s="100"/>
-      <c r="O54" s="100"/>
-      <c r="P54" s="100"/>
-      <c r="Q54" s="100"/>
-      <c r="R54" s="100"/>
-      <c r="S54" s="100"/>
-      <c r="T54" s="101"/>
-    </row>
-    <row r="55" spans="1:20" customFormat="false">
-      <c r="A55" s="81" t="s">
+      <c r="F57" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="30"/>
+      <c r="T57" s="31"/>
+    </row>
+    <row r="58" spans="1:20" customFormat="false" ht="33" customHeight="1">
+      <c r="A58" s="12"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="30"/>
+      <c r="S58" s="30"/>
+      <c r="T58" s="31"/>
+    </row>
+    <row r="59" spans="1:20" customFormat="false" ht="33" customHeight="1">
+      <c r="A59" s="12"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="N59" s="33"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="33"/>
+      <c r="T59" s="34"/>
+    </row>
+    <row r="60" spans="1:20" customFormat="false">
+      <c r="A60" s="12"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="G60" s="85"/>
+      <c r="H60" s="85"/>
+      <c r="I60" s="85"/>
+      <c r="J60" s="85"/>
+      <c r="K60" s="85"/>
+      <c r="L60" s="86"/>
+      <c r="M60" s="84"/>
+      <c r="N60" s="85"/>
+      <c r="O60" s="85"/>
+      <c r="P60" s="85"/>
+      <c r="Q60" s="85"/>
+      <c r="R60" s="85"/>
+      <c r="S60" s="85"/>
+      <c r="T60" s="86"/>
+    </row>
+    <row r="61" spans="1:20" customFormat="false">
+      <c r="A61" s="12"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="G61" s="82"/>
+      <c r="H61" s="82"/>
+      <c r="I61" s="82"/>
+      <c r="J61" s="82"/>
+      <c r="K61" s="82"/>
+      <c r="L61" s="83"/>
+      <c r="M61" s="84"/>
+      <c r="N61" s="85"/>
+      <c r="O61" s="85"/>
+      <c r="P61" s="85"/>
+      <c r="Q61" s="85"/>
+      <c r="R61" s="85"/>
+      <c r="S61" s="85"/>
+      <c r="T61" s="86"/>
+    </row>
+    <row r="62" spans="1:20" customFormat="false">
+      <c r="A62" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B55" s="82"/>
-      <c r="C55" s="85" t="s">
+      <c r="B62" s="97"/>
+      <c r="C62" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="87"/>
-      <c r="G55" s="85" t="s">
+      <c r="D62" s="88"/>
+      <c r="E62" s="88"/>
+      <c r="F62" s="89"/>
+      <c r="G62" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="H55" s="86"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="87"/>
-      <c r="K55" s="85" t="s">
+      <c r="H62" s="88"/>
+      <c r="I62" s="88"/>
+      <c r="J62" s="89"/>
+      <c r="K62" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="L55" s="86"/>
-      <c r="M55" s="86"/>
-      <c r="N55" s="87"/>
-      <c r="O55" s="85" t="s">
+      <c r="L62" s="88"/>
+      <c r="M62" s="88"/>
+      <c r="N62" s="89"/>
+      <c r="O62" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="P55" s="86"/>
-      <c r="Q55" s="86"/>
-      <c r="R55" s="86"/>
-      <c r="S55" s="86"/>
-      <c r="T55" s="87"/>
-    </row>
-    <row r="56" spans="1:20" customFormat="false">
-      <c r="A56" s="83"/>
-      <c r="B56" s="84"/>
-      <c r="C56" s="93" t="s">
+      <c r="P62" s="88"/>
+      <c r="Q62" s="88"/>
+      <c r="R62" s="88"/>
+      <c r="S62" s="88"/>
+      <c r="T62" s="89"/>
+    </row>
+    <row r="63" spans="1:20" customFormat="false">
+      <c r="A63" s="98"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="D56" s="93"/>
-      <c r="E56" s="93" t="s">
+      <c r="D63" s="92"/>
+      <c r="E63" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="F56" s="93"/>
-      <c r="G56" s="93" t="s">
+      <c r="F63" s="92"/>
+      <c r="G63" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="H56" s="93"/>
-      <c r="I56" s="93" t="s">
+      <c r="H63" s="92"/>
+      <c r="I63" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="J56" s="93"/>
-      <c r="K56" s="93" t="s">
+      <c r="J63" s="92"/>
+      <c r="K63" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="L56" s="93"/>
-      <c r="M56" s="93" t="s">
+      <c r="L63" s="92"/>
+      <c r="M63" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="N56" s="93"/>
-      <c r="O56" s="93" t="s">
+      <c r="N63" s="92"/>
+      <c r="O63" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="P56" s="93"/>
-      <c r="Q56" s="104"/>
-      <c r="R56" s="105"/>
-      <c r="S56" s="104"/>
-      <c r="T56" s="105"/>
-    </row>
-    <row r="57" spans="1:20" customFormat="false">
-      <c r="A57" s="3" t="s">
+      <c r="P63" s="92"/>
+      <c r="Q63" s="90"/>
+      <c r="R63" s="91"/>
+      <c r="S63" s="90"/>
+      <c r="T63" s="91"/>
+    </row>
+    <row r="64" spans="1:20" customFormat="false">
+      <c r="A64" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="96" t="s">
+      <c r="B64" s="4"/>
+      <c r="C64" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="D64" s="94"/>
+      <c r="E64" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="F64" s="94"/>
+      <c r="G64" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="H64" s="94"/>
+      <c r="I64" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="J64" s="94"/>
+      <c r="K64" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="L64" s="94"/>
+      <c r="M64" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="N64" s="94"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="27"/>
+      <c r="R64" s="28"/>
+      <c r="S64" s="27"/>
+      <c r="T64" s="27"/>
+    </row>
+    <row r="65" spans="1:20" customFormat="false">
+      <c r="A65" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="6"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="36"/>
+      <c r="Q65" s="27"/>
+      <c r="R65" s="28"/>
+      <c r="S65" s="27"/>
+      <c r="T65" s="28"/>
+    </row>
+    <row r="66" spans="1:20" customFormat="false">
+      <c r="A66" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="97"/>
-      <c r="E57" s="96" t="s">
+      <c r="D66" s="94"/>
+      <c r="E66" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="F57" s="97"/>
-      <c r="G57" s="96" t="s">
+      <c r="F66" s="94"/>
+      <c r="G66" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="H57" s="97"/>
-      <c r="I57" s="96" t="s">
+      <c r="H66" s="94"/>
+      <c r="I66" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="J57" s="97"/>
-      <c r="K57" s="98" t="s">
-        <v>93</v>
-      </c>
-      <c r="L57" s="97"/>
-      <c r="M57" s="98" t="s">
-        <v>91</v>
-      </c>
-      <c r="N57" s="97"/>
-      <c r="O57" s="94"/>
-      <c r="P57" s="95"/>
-      <c r="Q57" s="102"/>
-      <c r="R57" s="103"/>
-      <c r="S57" s="102"/>
-      <c r="T57" s="102"/>
-    </row>
-    <row r="58" spans="1:20" customFormat="false">
-      <c r="A58" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="94"/>
-      <c r="G58" s="94"/>
-      <c r="H58" s="94"/>
-      <c r="I58" s="94"/>
-      <c r="J58" s="94"/>
-      <c r="K58" s="94"/>
-      <c r="L58" s="94"/>
-      <c r="M58" s="94"/>
-      <c r="N58" s="94"/>
-      <c r="O58" s="94"/>
-      <c r="P58" s="95"/>
-      <c r="Q58" s="102"/>
-      <c r="R58" s="103"/>
-      <c r="S58" s="102"/>
-      <c r="T58" s="103"/>
-    </row>
-    <row r="59" spans="1:20" customFormat="false">
-      <c r="A59" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="D59" s="97"/>
-      <c r="E59" s="96" t="s">
-        <v>98</v>
-      </c>
-      <c r="F59" s="97"/>
-      <c r="G59" s="96" t="s">
-        <v>89</v>
-      </c>
-      <c r="H59" s="97"/>
-      <c r="I59" s="96" t="s">
+      <c r="J66" s="94"/>
+      <c r="K66" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="L66" s="94"/>
+      <c r="M66" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="J59" s="97"/>
-      <c r="K59" s="98" t="s">
-        <v>94</v>
-      </c>
-      <c r="L59" s="97"/>
-      <c r="M59" s="98" t="s">
-        <v>92</v>
-      </c>
-      <c r="N59" s="97"/>
-      <c r="O59" s="94"/>
-      <c r="P59" s="95"/>
-      <c r="Q59" s="102"/>
-      <c r="R59" s="103"/>
-      <c r="S59" s="102"/>
-      <c r="T59" s="103"/>
+      <c r="N66" s="94"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="27"/>
+      <c r="R66" s="28"/>
+      <c r="S66" s="27"/>
+      <c r="T66" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="154">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="S59:T59"/>
-    <mergeCell ref="M48:T48"/>
-    <mergeCell ref="M49:T49"/>
-    <mergeCell ref="M50:T50"/>
-    <mergeCell ref="M52:T52"/>
-    <mergeCell ref="M46:T46"/>
-    <mergeCell ref="O57:P57"/>
-    <mergeCell ref="M23:T23"/>
-    <mergeCell ref="M24:T24"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="M58:N58"/>
-    <mergeCell ref="O58:P58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="S58:T58"/>
-    <mergeCell ref="F43:L43"/>
-    <mergeCell ref="F44:L44"/>
+  <mergeCells count="168">
+    <mergeCell ref="M25:T25"/>
+    <mergeCell ref="M26:T26"/>
+    <mergeCell ref="M31:T31"/>
+    <mergeCell ref="M32:T32"/>
+    <mergeCell ref="M47:T47"/>
     <mergeCell ref="F45:L45"/>
     <mergeCell ref="F46:L46"/>
+    <mergeCell ref="M39:T39"/>
+    <mergeCell ref="M44:T44"/>
     <mergeCell ref="M45:T45"/>
-    <mergeCell ref="M43:T43"/>
-    <mergeCell ref="M44:T44"/>
-    <mergeCell ref="C3:T3"/>
-    <mergeCell ref="C4:T4"/>
-    <mergeCell ref="C6:T6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C10:T10"/>
-    <mergeCell ref="M21:T21"/>
-    <mergeCell ref="M22:T22"/>
-    <mergeCell ref="C9:T9"/>
-    <mergeCell ref="M13:T13"/>
-    <mergeCell ref="M15:T15"/>
-    <mergeCell ref="M12:T12"/>
-    <mergeCell ref="M20:T20"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="M18:T18"/>
-    <mergeCell ref="E21:L21"/>
-    <mergeCell ref="F22:L22"/>
-    <mergeCell ref="M19:T19"/>
-    <mergeCell ref="M16:T16"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="M42:T42"/>
-    <mergeCell ref="M28:T28"/>
-    <mergeCell ref="M31:T31"/>
-    <mergeCell ref="F52:L52"/>
-    <mergeCell ref="F47:L47"/>
-    <mergeCell ref="F48:L48"/>
-    <mergeCell ref="F49:L49"/>
-    <mergeCell ref="F50:L50"/>
+    <mergeCell ref="M46:T46"/>
+    <mergeCell ref="M34:T34"/>
     <mergeCell ref="M36:T36"/>
-    <mergeCell ref="M33:T33"/>
-    <mergeCell ref="M35:T35"/>
-    <mergeCell ref="F30:L30"/>
-    <mergeCell ref="F31:L31"/>
-    <mergeCell ref="F32:L32"/>
-    <mergeCell ref="M54:T54"/>
-    <mergeCell ref="M47:T47"/>
-    <mergeCell ref="F51:L51"/>
-    <mergeCell ref="M51:T51"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="O55:T55"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="M53:T53"/>
-    <mergeCell ref="F53:L53"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="F54:L54"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="A55:B56"/>
-    <mergeCell ref="C55:F55"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="F23:L23"/>
-    <mergeCell ref="F24:L24"/>
-    <mergeCell ref="F25:L25"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="M27:T27"/>
+    <mergeCell ref="F40:L40"/>
     <mergeCell ref="F41:L41"/>
     <mergeCell ref="F42:L42"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="F27:L27"/>
-    <mergeCell ref="F37:L37"/>
-    <mergeCell ref="F38:L38"/>
-    <mergeCell ref="F33:L33"/>
-    <mergeCell ref="F34:L34"/>
-    <mergeCell ref="F35:L35"/>
-    <mergeCell ref="F36:L36"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="F43:L43"/>
+    <mergeCell ref="M40:T40"/>
+    <mergeCell ref="M41:T41"/>
+    <mergeCell ref="M42:T42"/>
+    <mergeCell ref="M43:T43"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="C5:T5"/>
     <mergeCell ref="A8:B8"/>
@@ -3988,20 +4178,128 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A11:D18"/>
     <mergeCell ref="C2:T2"/>
-    <mergeCell ref="M25:T25"/>
-    <mergeCell ref="M26:T26"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="C62:F62"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="F23:L23"/>
+    <mergeCell ref="F24:L24"/>
+    <mergeCell ref="F25:L25"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="F31:L31"/>
+    <mergeCell ref="F47:L47"/>
+    <mergeCell ref="F48:L48"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="F39:L39"/>
+    <mergeCell ref="F44:L44"/>
+    <mergeCell ref="F35:L35"/>
+    <mergeCell ref="F36:L36"/>
+    <mergeCell ref="F37:L37"/>
+    <mergeCell ref="F38:L38"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M61:T61"/>
+    <mergeCell ref="M53:T53"/>
+    <mergeCell ref="F58:L58"/>
+    <mergeCell ref="M58:T58"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="O62:T62"/>
+    <mergeCell ref="S64:T64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="M60:T60"/>
+    <mergeCell ref="F60:L60"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="S63:T63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="O63:P63"/>
+    <mergeCell ref="F61:L61"/>
+    <mergeCell ref="M48:T48"/>
+    <mergeCell ref="M28:T28"/>
+    <mergeCell ref="M33:T33"/>
+    <mergeCell ref="F59:L59"/>
+    <mergeCell ref="F53:L53"/>
+    <mergeCell ref="F54:L54"/>
+    <mergeCell ref="F55:L55"/>
+    <mergeCell ref="F57:L57"/>
+    <mergeCell ref="M38:T38"/>
+    <mergeCell ref="M35:T35"/>
+    <mergeCell ref="M37:T37"/>
+    <mergeCell ref="F32:L32"/>
+    <mergeCell ref="F33:L33"/>
+    <mergeCell ref="F34:L34"/>
+    <mergeCell ref="F56:L56"/>
+    <mergeCell ref="M56:T56"/>
+    <mergeCell ref="C3:T3"/>
+    <mergeCell ref="C4:T4"/>
+    <mergeCell ref="C6:T6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C10:T10"/>
+    <mergeCell ref="M21:T21"/>
+    <mergeCell ref="M22:T22"/>
+    <mergeCell ref="C9:T9"/>
+    <mergeCell ref="M13:T13"/>
+    <mergeCell ref="M15:T15"/>
+    <mergeCell ref="M12:T12"/>
+    <mergeCell ref="M20:T20"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="M18:T18"/>
+    <mergeCell ref="E21:L21"/>
+    <mergeCell ref="F22:L22"/>
+    <mergeCell ref="M19:T19"/>
+    <mergeCell ref="M16:T16"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="M54:T54"/>
+    <mergeCell ref="M55:T55"/>
+    <mergeCell ref="M57:T57"/>
+    <mergeCell ref="M59:T59"/>
+    <mergeCell ref="M52:T52"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="M23:T23"/>
+    <mergeCell ref="M24:T24"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="S65:T65"/>
+    <mergeCell ref="F49:L49"/>
+    <mergeCell ref="F50:L50"/>
+    <mergeCell ref="F51:L51"/>
+    <mergeCell ref="F52:L52"/>
+    <mergeCell ref="M51:T51"/>
+    <mergeCell ref="M49:T49"/>
+    <mergeCell ref="M50:T50"/>
     <mergeCell ref="M29:T29"/>
     <mergeCell ref="M30:T30"/>
-    <mergeCell ref="M41:T41"/>
-    <mergeCell ref="F39:L39"/>
-    <mergeCell ref="F40:L40"/>
-    <mergeCell ref="M37:T37"/>
-    <mergeCell ref="M38:T38"/>
-    <mergeCell ref="M39:T39"/>
-    <mergeCell ref="M40:T40"/>
-    <mergeCell ref="M32:T32"/>
-    <mergeCell ref="M34:T34"/>
-    <mergeCell ref="M27:T27"/>
+    <mergeCell ref="F28:L30"/>
+    <mergeCell ref="E28:E30"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7086614173228347" right="0.7086614173228347" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
